--- a/hsweb-expands-office/src/test/resources/User.xlsx
+++ b/hsweb-expands-office/src/test/resources/User.xlsx
@@ -1,65 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19065" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -68,20 +71,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -89,33 +428,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -124,10 +744,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -162,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,56 +1025,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/hsweb-expands-office/src/test/resources/User.xlsx
+++ b/hsweb-expands-office/src/test/resources/User.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="7650" activeTab="2"/>
+    <workbookView windowWidth="19652" windowHeight="9888"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>姓名</t>
   </si>
@@ -27,10 +27,16 @@
     <t>备注</t>
   </si>
   <si>
+    <t>身份证</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
     <t>测试</t>
+  </si>
+  <si>
+    <t>1111111111111111212121212</t>
   </si>
   <si>
     <t>李四</t>
@@ -53,12 +59,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +82,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,24 +96,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,8 +118,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,61 +210,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -189,38 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,43 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,139 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,15 +447,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,21 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -526,155 +515,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,6 +696,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -744,10 +760,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="212121"/>
+        <a:sysClr val="windowText" lastClr="4A4A4A"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1027,20 +1043,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.7" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="19.6272727272727" customWidth="1"/>
+    <col min="2" max="2" width="26.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="33.1272727272727" customWidth="1"/>
+    <col min="4" max="4" width="27.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
+    <row r="1" s="3" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,26 +1067,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1089,7 +1115,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.7" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1102,18 +1128,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1121,13 +1147,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1144,26 +1170,26 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.7" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
